--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352529.007848736</v>
+        <v>1350133.351843556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>221.6240586663764</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>114.786904586944</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>5.64272960873455</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.648014829177</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>28.51794623902543</v>
       </c>
       <c r="H5" t="n">
-        <v>253.8207281244484</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>173.7463573115826</v>
       </c>
       <c r="V7" t="n">
-        <v>90.55821951231016</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>215.9159458273162</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>158.7162633552378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.86538463674681</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674717</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428297</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>110.0177171766865</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.56327578339665</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.32649042089758</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>81.27859867330056</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>166.5507736588103</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.23631843387898</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>100.2207207382361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>224.7837165195618</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>80.10107535865887</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583776</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2203.392926076864</v>
+        <v>1510.007366546552</v>
       </c>
       <c r="C2" t="n">
-        <v>1834.430409136452</v>
+        <v>1510.007366546552</v>
       </c>
       <c r="D2" t="n">
-        <v>1476.164710529702</v>
+        <v>1510.007366546552</v>
       </c>
       <c r="E2" t="n">
-        <v>1090.376457931458</v>
+        <v>1286.144681024959</v>
       </c>
       <c r="F2" t="n">
-        <v>679.3905531418502</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>262.9382918337248</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178222</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136012</v>
+        <v>730.2783389764048</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693613</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929196</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443063</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1883.473124807632</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140986</v>
+        <v>1510.007366546552</v>
       </c>
       <c r="Y2" t="n">
-        <v>2589.992766140986</v>
+        <v>1510.007366546552</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600624</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447982</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.40235127813</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>1949.990352833222</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>785.4014778512827</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C4" t="n">
-        <v>616.4652949233758</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>466.3486555110401</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>466.3486555110401</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1187.842521825052</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1187.842521825052</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="U4" t="n">
-        <v>1187.842521825052</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="V4" t="n">
-        <v>1187.842521825052</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="W4" t="n">
-        <v>1187.842521825052</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="X4" t="n">
-        <v>1187.842521825052</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y4" t="n">
-        <v>967.0499426815225</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1439.787835839973</v>
+        <v>1604.60823455988</v>
       </c>
       <c r="C5" t="n">
-        <v>1070.825318899561</v>
+        <v>1235.645717619468</v>
       </c>
       <c r="D5" t="n">
-        <v>712.5596202928107</v>
+        <v>877.3800190127174</v>
       </c>
       <c r="E5" t="n">
-        <v>326.7713676945664</v>
+        <v>491.5917664144732</v>
       </c>
       <c r="F5" t="n">
-        <v>319.825866945363</v>
+        <v>80.60586162486561</v>
       </c>
       <c r="G5" t="n">
-        <v>308.184429185899</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4568,13 +4568,13 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879906</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1826.387675904095</v>
+        <v>1991.208074624001</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.259069625416</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C7" t="n">
-        <v>305.259069625416</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D7" t="n">
-        <v>305.259069625416</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>157.3459760430229</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4753,22 +4753,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.049095695859</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>1471.482299132077</v>
       </c>
       <c r="V7" t="n">
-        <v>1043.458369703924</v>
+        <v>1216.79781092619</v>
       </c>
       <c r="W7" t="n">
-        <v>754.0411996669635</v>
+        <v>927.3806408892298</v>
       </c>
       <c r="X7" t="n">
-        <v>526.0516487689462</v>
+        <v>699.3910899912124</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.259069625416</v>
+        <v>699.3910899912124</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1652.934136166469</v>
+        <v>1108.724948496402</v>
       </c>
       <c r="C8" t="n">
-        <v>1283.971619226057</v>
+        <v>739.7624315559899</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314551</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477388</v>
@@ -4838,16 +4838,16 @@
         <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="X8" t="n">
-        <v>2429.673308206402</v>
+        <v>1885.464120536335</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.533976230591</v>
+        <v>1495.324788560523</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962038</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.69146728778</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1965.620148003311</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>727.1359052451303</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>558.1997223172234</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>408.0830829048876</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>260.1699893224945</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>113.2800418245842</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4960,25 +4960,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4996,16 +4996,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>908.78437007537</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191927</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349518</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400726</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121657</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121657</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703123</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,37 +5279,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400721</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400721</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179095</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,13 +5832,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6206,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,13 +6306,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,31 +6382,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.3777707160738</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>383.4415877881669</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2418.441549808666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.58671546357</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.985250486511</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.910023830708</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V31" t="n">
-        <v>1472.225535624822</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1182.808365587861</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>954.8188146898436</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.0262355463135</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6695,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950296</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>174.7268401779303</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7372,10 +7372,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.0311336426203</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>79.36488908811498</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>119.3631077669189</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>196.3826133675373</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>191.4694788103614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>22.36271716134905</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
-        <v>63.3683537222862</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.41624546988271</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>73.8577722395346</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.5054897610397</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>85.96822242532727</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>119.6337007304339</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.13892827624271</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>145.6085800303771</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.40075786968239</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>60.19363748756501</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038613</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977847.7089312366</v>
+        <v>977847.7089312363</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286179</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26338,13 +26338,13 @@
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.456904235</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26476,13 +26476,13 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696188.7876689772</v>
+        <v>-696188.7876689796</v>
       </c>
       <c r="C6" t="n">
-        <v>97312.8580419175</v>
+        <v>97312.85804192029</v>
       </c>
       <c r="D6" t="n">
-        <v>270077.2178318119</v>
+        <v>270077.2178318126</v>
       </c>
       <c r="E6" t="n">
-        <v>-124010.9182873496</v>
+        <v>-124045.6562127848</v>
       </c>
       <c r="F6" t="n">
-        <v>376877.9494584017</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="G6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="H6" t="n">
-        <v>376877.949458402</v>
+        <v>376843.2115329659</v>
       </c>
       <c r="I6" t="n">
-        <v>376877.9494584012</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="J6" t="n">
-        <v>207463.9326323534</v>
+        <v>207429.1947069177</v>
       </c>
       <c r="K6" t="n">
-        <v>376877.9494584017</v>
+        <v>376843.2115329655</v>
       </c>
       <c r="L6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="M6" t="n">
-        <v>245993.4925541661</v>
+        <v>245958.7546287308</v>
       </c>
       <c r="N6" t="n">
-        <v>376877.9494584015</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="O6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="P6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329657</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,34 +26957,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918292</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>428.2691096918297</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>160.3063114058854</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>193.8105408625674</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>194.804794762567</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.06164055986014</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>383.0070771428439</v>
       </c>
       <c r="H5" t="n">
-        <v>46.96555912401132</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -27667,7 +27667,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>112.480241908123</v>
       </c>
       <c r="V7" t="n">
-        <v>161.5794238115178</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>138.7670957933668</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,13 +27910,13 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>211.0148373232313</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139827</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28068,7 +28068,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31522,25 +31522,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31549,7 +31549,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31601,22 +31601,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31710,10 +31710,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744716</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>597.170955974472</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>447.0541449741274</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>357.2600601150165</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>385.9686951360968</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>370.4522708965371</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35027,13 +35027,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>529.781277512918</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>274.3594119744994</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35346,10 +35346,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524533</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524537</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
